--- a/result/my se res.xlsx
+++ b/result/my se res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0F3DF5-8981-4B9A-B44B-7484AA6BDE9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA0A20-0C47-4450-8F46-C8AEA7A1C614}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5EFFC697-0111-4B74-8F50-A4C399E2735B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Voltages (pu)</t>
   </si>
@@ -59,6 +59,42 @@
   </si>
   <si>
     <t>Loading Percent</t>
+  </si>
+  <si>
+    <t>measurement_type</t>
+  </si>
+  <si>
+    <t>element_type</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
 </sst>
 </file>
@@ -410,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1382AF-A34E-4734-A7A2-8B71EBA2833D}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A7:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G26" sqref="A18:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -586,6 +622,210 @@
         <v>0.79522999999999999</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1.006</v>
+      </c>
+      <c r="F19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>-0.501</v>
+      </c>
+      <c r="F21">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="F22">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1.173</v>
+      </c>
+      <c r="F24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
